--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2964" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4468" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -396,10 +420,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -443,28 +467,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="3">
+      <c r="A11" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="3">
+      <c r="C11" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -489,28 +513,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="3">
+      <c r="B13" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="3">
+      <c r="E13" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="3">
+      <c r="F13" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="3">
+      <c r="G13" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="3">
+      <c r="H13" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="3">
+      <c r="I13" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -859,10 +883,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -906,28 +930,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="3">
+      <c r="A27" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="3">
+      <c r="C27" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -952,28 +976,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="3">
+      <c r="I29" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1264,10 +1288,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="3" t="s">
+      <c r="J39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1311,28 +1335,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="A41" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s" s="3">
+      <c r="C41" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1357,28 +1381,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="3">
+      <c r="I43" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1553,10 +1577,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="3" t="s">
+      <c r="J49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1600,28 +1624,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="3">
+      <c r="A51" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="3">
+      <c r="B51" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="3">
+      <c r="C51" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="3">
+      <c r="E51" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="3">
+      <c r="F51" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="3">
+      <c r="G51" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="3">
+      <c r="H51" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1646,28 +1670,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="3">
+      <c r="B53" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="3">
+      <c r="C53" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="3">
+      <c r="D53" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="3">
+      <c r="E53" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="3">
+      <c r="F53" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="3">
+      <c r="G53" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="3">
+      <c r="H53" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="3">
+      <c r="I53" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1755,10 +1779,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="3" t="s">
+      <c r="J56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1802,28 +1826,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="3">
+      <c r="A58" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="3">
+      <c r="B58" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="3">
+      <c r="C58" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="3">
+      <c r="E58" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="3">
+      <c r="F58" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="3">
+      <c r="G58" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="3">
+      <c r="H58" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1848,28 +1872,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="3">
+      <c r="B60" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="3">
+      <c r="C60" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="3">
+      <c r="D60" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="3">
+      <c r="E60" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="3">
+      <c r="F60" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="3">
+      <c r="G60" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="3">
+      <c r="H60" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="3">
+      <c r="I60" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2131,10 +2155,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="3" t="s">
+      <c r="J69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2178,28 +2202,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="3">
+      <c r="A71" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="3">
+      <c r="B71" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="3">
+      <c r="C71" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="3">
+      <c r="E71" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="3">
+      <c r="F71" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="3">
+      <c r="G71" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="3">
+      <c r="H71" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2224,28 +2248,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="3">
+      <c r="C73" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="3">
+      <c r="D73" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="3">
+      <c r="I73" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2420,10 +2444,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="3" t="s">
+      <c r="J79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2467,28 +2491,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="3">
+      <c r="A81" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="3">
+      <c r="C81" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2513,28 +2537,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="3">
+      <c r="B83" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="3">
+      <c r="C83" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="3">
+      <c r="D83" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="3">
+      <c r="E83" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="3">
+      <c r="F83" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="3">
+      <c r="G83" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="3">
+      <c r="H83" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="3">
+      <c r="I83" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2767,10 +2791,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="J91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2814,28 +2838,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="A93" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="3">
+      <c r="C93" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2860,28 +2884,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="3">
+      <c r="I95" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3143,10 +3167,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="J104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3190,28 +3214,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="3">
+      <c r="C106" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3236,28 +3260,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3345,10 +3369,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="3" t="s">
+      <c r="J111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3392,28 +3416,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="3">
+      <c r="C113" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3438,28 +3462,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3605,10 +3629,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="J120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3652,28 +3676,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="3">
+      <c r="C122" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3698,28 +3722,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3807,10 +3831,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="3" t="s">
+      <c r="J127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3854,28 +3878,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="3">
+      <c r="C129" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3900,28 +3924,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4096,10 +4120,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="3" t="s">
+      <c r="J137" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4143,28 +4167,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="3">
+      <c r="A139" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="3">
+      <c r="B139" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="3">
+      <c r="C139" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="3">
+      <c r="E139" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="3">
+      <c r="F139" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="3">
+      <c r="G139" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="3">
+      <c r="H139" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4189,28 +4213,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="3">
+      <c r="B141" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="3">
+      <c r="C141" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="3">
+      <c r="D141" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="3">
+      <c r="E141" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="3">
+      <c r="F141" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="3">
+      <c r="G141" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="3">
+      <c r="H141" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="3">
+      <c r="I141" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4443,10 +4467,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="3" t="s">
+      <c r="J149" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4490,28 +4514,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="3">
+      <c r="A151" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="3">
+      <c r="B151" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="3">
+      <c r="C151" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="3">
+      <c r="E151" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="3">
+      <c r="F151" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="3">
+      <c r="G151" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="3">
+      <c r="H151" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4536,28 +4560,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="3">
+      <c r="B153" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="3">
+      <c r="C153" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="3">
+      <c r="D153" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="3">
+      <c r="E153" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="3">
+      <c r="F153" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="3">
+      <c r="G153" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="3">
+      <c r="H153" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="3">
+      <c r="I153" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4645,10 +4669,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="3" t="s">
+      <c r="J156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4692,28 +4716,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="3">
+      <c r="A158" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="3">
+      <c r="B158" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="3">
+      <c r="C158" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="3">
+      <c r="E158" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="3">
+      <c r="F158" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="3">
+      <c r="G158" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="3">
+      <c r="H158" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4738,28 +4762,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="3">
+      <c r="C160" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="3">
+      <c r="D160" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="3">
+      <c r="I160" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4905,10 +4929,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="3" t="s">
+      <c r="J165" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4952,28 +4976,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="3">
+      <c r="A167" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="3">
+      <c r="C167" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4998,28 +5022,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="3">
+      <c r="C169" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="3">
+      <c r="D169" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="3">
+      <c r="I169" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5252,10 +5276,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="3" t="s">
+      <c r="J177" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5299,28 +5323,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="3">
+      <c r="A179" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="3">
+      <c r="C179" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5345,28 +5369,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="3">
+      <c r="C181" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="3">
+      <c r="D181" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="3">
+      <c r="I181" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5541,10 +5565,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="3" t="s">
+      <c r="J187" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5588,28 +5612,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="3">
+      <c r="A189" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="3">
+      <c r="B189" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="3">
+      <c r="C189" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="3">
+      <c r="E189" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="3">
+      <c r="F189" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="3">
+      <c r="G189" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="3">
+      <c r="H189" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5634,28 +5658,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="3">
+      <c r="C191" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="3">
+      <c r="D191" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="3">
+      <c r="I191" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5714,10 +5738,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="3" t="s">
+      <c r="J193" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5761,28 +5785,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="3">
+      <c r="A195" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="3">
+      <c r="C195" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5807,28 +5831,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="3">
+      <c r="C197" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="3">
+      <c r="D197" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="3">
+      <c r="I197" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5945,10 +5969,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="3" t="s">
+      <c r="J201" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
